--- a/biology/Botanique/Pseudonectria_buxi/Pseudonectria_buxi.xlsx
+++ b/biology/Botanique/Pseudonectria_buxi/Pseudonectria_buxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudonectria buxi est une espèce de champignons ascomycètes de la famille des Nectriaceae d'origine inconnue.
 C'est la forme sexuée (téléomorphe) d'un champignon phytopathogène qui parasite quelques espèces de buis (genre Buxus), notamment Buxus sempervirens, provoquant chez les variétés sensibles la maladie dite du « dépérissement du buis » (symptômes de dépérissement des feuilles et des rameaux).
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (11 août 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (11 août 2015) :
 Chaetodochium buxi (DC.) Höhn. (1932)
 Chaetostroma buxi (DC.) Corda (1838)
 Hypolyssus fulvus (Fr.) Kuntze (1898)
